--- a/3. Shiny_app/psytest_constraints.xlsx
+++ b/3. Shiny_app/psytest_constraints.xlsx
@@ -15,14 +15,14 @@
     <sheet name="constraints" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">constraints!$A$1:$G$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">constraints!$A$1:$H$62</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="168">
   <si>
     <t>test</t>
   </si>
@@ -523,6 +523,9 @@
   </si>
   <si>
     <t>Эмоциональная стабильность - Неустойчивость</t>
+  </si>
+  <si>
+    <t>median</t>
   </si>
 </sst>
 </file>
@@ -571,13 +574,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -860,27 +863,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.44140625" customWidth="1"/>
     <col min="2" max="2" width="61.44140625" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="4" customWidth="1"/>
+    <col min="6" max="7" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>147</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -889,14 +893,17 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -912,14 +919,17 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="4">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -935,14 +945,17 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F3" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="4">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -958,14 +971,17 @@
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F4" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="4">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -981,14 +997,17 @@
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="F5" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="4">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1004,14 +1023,17 @@
       <c r="E6">
         <v>5</v>
       </c>
-      <c r="F6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="F6" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="4">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1027,14 +1049,17 @@
       <c r="E7">
         <v>6</v>
       </c>
-      <c r="F7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="F7" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" s="4">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1050,14 +1075,17 @@
       <c r="E8">
         <v>7</v>
       </c>
-      <c r="F8" t="s">
-        <v>131</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="F8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="4">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1073,14 +1101,17 @@
       <c r="E9">
         <v>8</v>
       </c>
-      <c r="F9" t="s">
-        <v>131</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="F9" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="4">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1096,14 +1127,17 @@
       <c r="E10">
         <v>9</v>
       </c>
-      <c r="F10" t="s">
-        <v>131</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="F10" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="4">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1119,14 +1153,17 @@
       <c r="E11">
         <v>10</v>
       </c>
-      <c r="F11" t="s">
-        <v>131</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="F11" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="4">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1142,14 +1179,17 @@
       <c r="E12">
         <v>11</v>
       </c>
-      <c r="F12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F12" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="4">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1165,14 +1205,17 @@
       <c r="E13">
         <v>12</v>
       </c>
-      <c r="F13" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="F13" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="4">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1188,14 +1231,17 @@
       <c r="E14">
         <v>13</v>
       </c>
-      <c r="F14" t="s">
-        <v>131</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="F14" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" s="4">
+        <v>10</v>
+      </c>
+      <c r="H14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1211,14 +1257,17 @@
       <c r="E15">
         <v>14</v>
       </c>
-      <c r="F15" t="s">
-        <v>131</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="F15" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" s="4">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1234,14 +1283,17 @@
       <c r="E16">
         <v>15</v>
       </c>
-      <c r="F16" t="s">
-        <v>131</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="F16" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" s="4">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -1257,14 +1309,17 @@
       <c r="E17" s="1">
         <v>16</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="F17" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" s="3">
+        <v>15</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1278,14 +1333,17 @@
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18" t="s">
-        <v>131</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="F18" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" s="4">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1299,14 +1357,17 @@
       <c r="E19">
         <v>2</v>
       </c>
-      <c r="F19" t="s">
-        <v>131</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="F19" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="4">
+        <v>6</v>
+      </c>
+      <c r="H19" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
@@ -1320,14 +1381,17 @@
       <c r="E20" s="2">
         <v>3</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="5">
         <v>0</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="5">
+        <v>17</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -1341,14 +1405,17 @@
       <c r="E21" s="1">
         <v>4</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="F21" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" s="3">
+        <v>11</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1362,14 +1429,17 @@
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" t="s">
-        <v>131</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="F22" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" s="4">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1383,14 +1453,17 @@
       <c r="E23">
         <v>2</v>
       </c>
-      <c r="F23" t="s">
-        <v>131</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="F23" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="4">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1404,14 +1477,17 @@
       <c r="E24">
         <v>3</v>
       </c>
-      <c r="F24" t="s">
-        <v>131</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="F24" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G24" s="4">
+        <v>15</v>
+      </c>
+      <c r="H24" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1425,14 +1501,17 @@
       <c r="E25">
         <v>4</v>
       </c>
-      <c r="F25" t="s">
-        <v>131</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="F25" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" s="4">
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1446,14 +1525,17 @@
       <c r="E26">
         <v>5</v>
       </c>
-      <c r="F26" t="s">
-        <v>131</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="F26" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" s="4">
+        <v>12</v>
+      </c>
+      <c r="H26" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1467,14 +1549,17 @@
       <c r="E27">
         <v>6</v>
       </c>
-      <c r="F27" t="s">
-        <v>131</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="F27" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G27" s="4">
+        <v>15</v>
+      </c>
+      <c r="H27" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1488,14 +1573,17 @@
       <c r="E28">
         <v>7</v>
       </c>
-      <c r="F28" t="s">
-        <v>131</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="F28" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" s="4">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1509,14 +1597,17 @@
       <c r="E29">
         <v>8</v>
       </c>
-      <c r="F29" t="s">
-        <v>131</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="F29" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G29" s="4">
+        <v>15</v>
+      </c>
+      <c r="H29" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1530,14 +1621,17 @@
       <c r="E30">
         <v>9</v>
       </c>
-      <c r="F30" t="s">
-        <v>131</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="F30" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G30" s="4">
+        <v>12</v>
+      </c>
+      <c r="H30" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -1551,14 +1645,17 @@
       <c r="E31" s="1">
         <v>10</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G31" s="1" t="s">
+      <c r="F31" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G31" s="3">
+        <v>18</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -1572,14 +1669,17 @@
       <c r="E32">
         <v>1</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="4">
+        <v>43</v>
+      </c>
+      <c r="H32" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -1593,14 +1693,17 @@
       <c r="E33">
         <v>2</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="4">
+        <v>50</v>
+      </c>
+      <c r="H33" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -1614,14 +1717,17 @@
       <c r="E34">
         <v>3</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="4">
+        <v>51</v>
+      </c>
+      <c r="H34" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -1635,14 +1741,17 @@
       <c r="E35">
         <v>4</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="4">
+        <v>54</v>
+      </c>
+      <c r="H35" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
@@ -1656,14 +1765,17 @@
       <c r="E36" s="1">
         <v>5</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="3">
+        <v>55</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -1677,14 +1789,17 @@
       <c r="E37">
         <v>1</v>
       </c>
-      <c r="F37" t="s">
-        <v>131</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="F37" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G37" s="4">
+        <v>6</v>
+      </c>
+      <c r="H37" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -1698,14 +1813,17 @@
       <c r="E38">
         <v>2</v>
       </c>
-      <c r="F38" t="s">
-        <v>131</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="F38" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G38" s="4">
+        <v>7</v>
+      </c>
+      <c r="H38" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -1719,14 +1837,17 @@
       <c r="E39">
         <v>3</v>
       </c>
-      <c r="F39" t="s">
-        <v>131</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="F39" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G39" s="4">
+        <v>7</v>
+      </c>
+      <c r="H39" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -1740,14 +1861,17 @@
       <c r="E40">
         <v>4</v>
       </c>
-      <c r="F40" t="s">
-        <v>131</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="F40" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G40" s="4">
+        <v>7</v>
+      </c>
+      <c r="H40" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -1761,14 +1885,17 @@
       <c r="E41">
         <v>5</v>
       </c>
-      <c r="F41" t="s">
-        <v>131</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="F41" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G41" s="4">
+        <v>7</v>
+      </c>
+      <c r="H41" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>10</v>
       </c>
@@ -1782,14 +1909,17 @@
       <c r="E42" s="1">
         <v>6</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G42" s="1" t="s">
+      <c r="F42" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G42" s="3">
+        <v>8</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -1802,14 +1932,17 @@
       <c r="E43">
         <v>15</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="4">
+        <v>11</v>
+      </c>
+      <c r="H43" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -1822,14 +1955,17 @@
       <c r="E44">
         <v>2</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="4">
+        <v>26</v>
+      </c>
+      <c r="H44" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -1842,14 +1978,17 @@
       <c r="E45">
         <v>12</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="4">
         <v>-4</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="4">
+        <v>4</v>
+      </c>
+      <c r="H45" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -1862,14 +2001,17 @@
       <c r="E46">
         <v>3</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="4">
         <v>-4</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="4">
+        <v>16</v>
+      </c>
+      <c r="H46" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -1882,14 +2024,17 @@
       <c r="E47">
         <v>19</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="4">
         <v>-3</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="4">
+        <v>8</v>
+      </c>
+      <c r="H47" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -1902,14 +2047,17 @@
       <c r="E48">
         <v>4</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="4">
         <v>-3</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="4">
+        <v>15</v>
+      </c>
+      <c r="H48" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -1922,14 +2070,17 @@
       <c r="E49">
         <v>20</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="4">
+        <v>9</v>
+      </c>
+      <c r="H49" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -1942,14 +2093,17 @@
       <c r="E50">
         <v>9</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="4">
+        <v>25</v>
+      </c>
+      <c r="H50" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -1962,14 +2116,17 @@
       <c r="E51">
         <v>14</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="4">
         <v>-4</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="4">
+        <v>9</v>
+      </c>
+      <c r="H51" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -1982,14 +2139,17 @@
       <c r="E52">
         <v>10</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="4">
         <v>-4</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="4">
+        <v>20</v>
+      </c>
+      <c r="H52" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -2002,14 +2162,17 @@
       <c r="E53">
         <v>17</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="4">
         <v>-4</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="4">
+        <v>7</v>
+      </c>
+      <c r="H53" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -2022,14 +2185,17 @@
       <c r="E54">
         <v>7</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="4">
         <v>-4</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="4">
+        <v>18</v>
+      </c>
+      <c r="H54" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -2042,14 +2208,17 @@
       <c r="E55">
         <v>11</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="4">
+        <v>12</v>
+      </c>
+      <c r="H55" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -2062,14 +2231,17 @@
       <c r="E56">
         <v>5</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="4">
+        <v>27</v>
+      </c>
+      <c r="H56" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -2082,14 +2254,17 @@
       <c r="E57">
         <v>16</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="4">
+        <v>5</v>
+      </c>
+      <c r="H57" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -2102,14 +2277,17 @@
       <c r="E58">
         <v>6</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="4">
+        <v>12</v>
+      </c>
+      <c r="H58" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -2122,14 +2300,17 @@
       <c r="E59">
         <v>18</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="4">
+        <v>4</v>
+      </c>
+      <c r="H59" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -2142,14 +2323,17 @@
       <c r="E60">
         <v>8</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="4">
+        <v>18</v>
+      </c>
+      <c r="H60" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -2162,14 +2346,17 @@
       <c r="E61">
         <v>13</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="4">
+        <v>14</v>
+      </c>
+      <c r="H61" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -2182,15 +2369,18 @@
       <c r="E62">
         <v>1</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="4">
+        <v>40</v>
+      </c>
+      <c r="H62" t="s">
         <v>143</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G62">
+  <autoFilter ref="A1:H62">
     <sortState ref="A43:G62">
       <sortCondition ref="B1:B62"/>
     </sortState>
